--- a/xlsx/country_comparison/radical_redistr_pol_US_positive.xlsx
+++ b/xlsx/country_comparison/radical_redistr_pol_US_positive.xlsx
@@ -12,15 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Millionaires</t>
   </si>
   <si>
     <t xml:space="preserve">Europe Non-voters</t>
@@ -461,377 +458,350 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
         <v>0.556565037682828</v>
       </c>
       <c r="C2" t="n">
-        <v>0.393016824439431</v>
+        <v>0.584715470382293</v>
       </c>
       <c r="D2" t="n">
-        <v>0.584715470382293</v>
+        <v>0.809444964341555</v>
       </c>
       <c r="E2" t="n">
-        <v>0.809444964341555</v>
+        <v>0.502893565174609</v>
       </c>
       <c r="F2" t="n">
-        <v>0.502893565174609</v>
+        <v>0.484386429576709</v>
       </c>
       <c r="G2" t="n">
-        <v>0.484386429576709</v>
+        <v>0.356105750421195</v>
       </c>
       <c r="H2" t="n">
-        <v>0.356105750421195</v>
+        <v>0.508432438341536</v>
       </c>
       <c r="I2" t="n">
-        <v>0.508432438341536</v>
+        <v>0.451519556659133</v>
       </c>
       <c r="J2" t="n">
-        <v>0.451519556659133</v>
+        <v>0.535251908690676</v>
       </c>
       <c r="K2" t="n">
-        <v>0.535251908690676</v>
+        <v>0.476758540730456</v>
       </c>
       <c r="L2" t="n">
-        <v>0.476758540730456</v>
+        <v>0.503741905167505</v>
       </c>
       <c r="M2" t="n">
-        <v>0.503741905167505</v>
+        <v>0.637096655800029</v>
       </c>
       <c r="N2" t="n">
-        <v>0.637096655800029</v>
-      </c>
-      <c r="O2" t="n">
         <v>0.373993319775201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>0.503247309719211</v>
       </c>
       <c r="C3" t="n">
-        <v>0.316231358914818</v>
+        <v>0.513850437188526</v>
       </c>
       <c r="D3" t="n">
-        <v>0.513850437188526</v>
+        <v>0.71931115965366</v>
       </c>
       <c r="E3" t="n">
-        <v>0.71931115965366</v>
+        <v>0.495264748486105</v>
       </c>
       <c r="F3" t="n">
-        <v>0.495264748486105</v>
+        <v>0.440316456384772</v>
       </c>
       <c r="G3" t="n">
-        <v>0.440316456384772</v>
+        <v>0.34215953895184</v>
       </c>
       <c r="H3" t="n">
-        <v>0.34215953895184</v>
+        <v>0.455068700122256</v>
       </c>
       <c r="I3" t="n">
-        <v>0.455068700122256</v>
+        <v>0.306824263084082</v>
       </c>
       <c r="J3" t="n">
-        <v>0.306824263084082</v>
+        <v>0.47817469415572</v>
       </c>
       <c r="K3" t="n">
-        <v>0.47817469415572</v>
+        <v>0.43506217467297</v>
       </c>
       <c r="L3" t="n">
-        <v>0.43506217467297</v>
+        <v>0.455679906453223</v>
       </c>
       <c r="M3" t="n">
-        <v>0.455679906453223</v>
+        <v>0.566496834134014</v>
       </c>
       <c r="N3" t="n">
-        <v>0.566496834134014</v>
-      </c>
-      <c r="O3" t="n">
         <v>0.339067925103543</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>0.680815013747804</v>
       </c>
       <c r="C4" t="n">
-        <v>0.616668833076667</v>
+        <v>0.680673282454082</v>
       </c>
       <c r="D4" t="n">
-        <v>0.680673282454082</v>
+        <v>0.831184500933943</v>
       </c>
       <c r="E4" t="n">
-        <v>0.831184500933943</v>
+        <v>0.695788344040076</v>
       </c>
       <c r="F4" t="n">
-        <v>0.695788344040076</v>
+        <v>0.538162773640089</v>
       </c>
       <c r="G4" t="n">
-        <v>0.538162773640089</v>
+        <v>0.743644347389163</v>
       </c>
       <c r="H4" t="n">
-        <v>0.743644347389163</v>
+        <v>0.814701212857562</v>
       </c>
       <c r="I4" t="n">
-        <v>0.814701212857562</v>
+        <v>0.757048871605567</v>
       </c>
       <c r="J4" t="n">
-        <v>0.757048871605567</v>
+        <v>0.673024184815142</v>
       </c>
       <c r="K4" t="n">
-        <v>0.673024184815142</v>
+        <v>0.611564962508487</v>
       </c>
       <c r="L4" t="n">
-        <v>0.611564962508487</v>
+        <v>0.671270631778761</v>
       </c>
       <c r="M4" t="n">
-        <v>0.671270631778761</v>
+        <v>0.776836935461012</v>
       </c>
       <c r="N4" t="n">
-        <v>0.776836935461012</v>
-      </c>
-      <c r="O4" t="n">
         <v>0.425661149175785</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>0.704960018034767</v>
       </c>
       <c r="C5" t="n">
-        <v>0.501381130731594</v>
+        <v>0.787954017306878</v>
       </c>
       <c r="D5" t="n">
-        <v>0.787954017306878</v>
+        <v>0.876770446811719</v>
       </c>
       <c r="E5" t="n">
-        <v>0.876770446811719</v>
+        <v>0.74609538238357</v>
       </c>
       <c r="F5" t="n">
-        <v>0.74609538238357</v>
+        <v>0.664878143534609</v>
       </c>
       <c r="G5" t="n">
-        <v>0.664878143534609</v>
+        <v>0.7335602187152</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7335602187152</v>
+        <v>0.725922165695082</v>
       </c>
       <c r="I5" t="n">
-        <v>0.725922165695082</v>
+        <v>0.685126203737904</v>
       </c>
       <c r="J5" t="n">
-        <v>0.685126203737904</v>
+        <v>0.577788249681758</v>
       </c>
       <c r="K5" t="n">
-        <v>0.577788249681758</v>
+        <v>0.539896049184444</v>
       </c>
       <c r="L5" t="n">
-        <v>0.539896049184444</v>
+        <v>0.688883535477258</v>
       </c>
       <c r="M5" t="n">
-        <v>0.688883535477258</v>
+        <v>0.68963486840272</v>
       </c>
       <c r="N5" t="n">
-        <v>0.68963486840272</v>
-      </c>
-      <c r="O5" t="n">
         <v>0.436451458600216</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>0.675595447215337</v>
       </c>
       <c r="C6" t="n">
-        <v>0.523930159271177</v>
+        <v>0.70986778173764</v>
       </c>
       <c r="D6" t="n">
-        <v>0.70986778173764</v>
+        <v>0.892471876813608</v>
       </c>
       <c r="E6" t="n">
-        <v>0.892471876813608</v>
+        <v>0.637051467662211</v>
       </c>
       <c r="F6" t="n">
-        <v>0.637051467662211</v>
+        <v>0.578161277543308</v>
       </c>
       <c r="G6" t="n">
-        <v>0.578161277543308</v>
+        <v>0.433349195600366</v>
       </c>
       <c r="H6" t="n">
-        <v>0.433349195600366</v>
+        <v>0.696851480613757</v>
       </c>
       <c r="I6" t="n">
-        <v>0.696851480613757</v>
+        <v>0.583790255087382</v>
       </c>
       <c r="J6" t="n">
-        <v>0.583790255087382</v>
+        <v>0.71920406264065</v>
       </c>
       <c r="K6" t="n">
-        <v>0.71920406264065</v>
+        <v>0.6189512868848</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6189512868848</v>
+        <v>0.641824096726743</v>
       </c>
       <c r="M6" t="n">
-        <v>0.641824096726743</v>
+        <v>0.834461320073758</v>
       </c>
       <c r="N6" t="n">
-        <v>0.834461320073758</v>
-      </c>
-      <c r="O6" t="n">
         <v>0.474126518973143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>0.364717906507653</v>
       </c>
       <c r="C7" t="n">
-        <v>0.301242387158432</v>
+        <v>0.348888186886583</v>
       </c>
       <c r="D7" t="n">
-        <v>0.348888186886583</v>
+        <v>0.612564469882184</v>
       </c>
       <c r="E7" t="n">
-        <v>0.612564469882184</v>
+        <v>0.329076922032927</v>
       </c>
       <c r="F7" t="n">
-        <v>0.329076922032927</v>
+        <v>0.266032348749018</v>
       </c>
       <c r="G7" t="n">
-        <v>0.266032348749018</v>
+        <v>0.163327499246366</v>
       </c>
       <c r="H7" t="n">
-        <v>0.163327499246366</v>
+        <v>0.313179598308858</v>
       </c>
       <c r="I7" t="n">
-        <v>0.313179598308858</v>
+        <v>0.218483573122562</v>
       </c>
       <c r="J7" t="n">
-        <v>0.218483573122562</v>
+        <v>0.404654417820348</v>
       </c>
       <c r="K7" t="n">
-        <v>0.404654417820348</v>
+        <v>0.36536832142909</v>
       </c>
       <c r="L7" t="n">
-        <v>0.36536832142909</v>
+        <v>0.283095421815601</v>
       </c>
       <c r="M7" t="n">
-        <v>0.283095421815601</v>
+        <v>0.52122515690493</v>
       </c>
       <c r="N7" t="n">
-        <v>0.52122515690493</v>
-      </c>
-      <c r="O7" t="n">
         <v>0.27084855688435</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>0.347853243460036</v>
       </c>
       <c r="C8" t="n">
-        <v>0.262527011404327</v>
+        <v>0.394261110370281</v>
       </c>
       <c r="D8" t="n">
-        <v>0.394261110370281</v>
+        <v>0.540846531529226</v>
       </c>
       <c r="E8" t="n">
-        <v>0.540846531529226</v>
+        <v>0.30076097129752</v>
       </c>
       <c r="F8" t="n">
-        <v>0.30076097129752</v>
-      </c>
-      <c r="G8" t="n">
         <v>0.236110214107178</v>
       </c>
+      <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
-      <c r="J8"/>
+      <c r="J8" t="n">
+        <v>0.345632380582922</v>
+      </c>
       <c r="K8" t="n">
-        <v>0.345632380582922</v>
+        <v>0.291155578085398</v>
       </c>
       <c r="L8" t="n">
-        <v>0.291155578085398</v>
+        <v>0.311745273790548</v>
       </c>
       <c r="M8" t="n">
-        <v>0.311745273790548</v>
+        <v>0.450524011973634</v>
       </c>
       <c r="N8" t="n">
-        <v>0.450524011973634</v>
-      </c>
-      <c r="O8" t="n">
         <v>0.173904958357855</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
         <v>0.410629863862209</v>
       </c>
       <c r="C9" t="n">
-        <v>0.393225264575894</v>
+        <v>0.380980276520636</v>
       </c>
       <c r="D9" t="n">
-        <v>0.380980276520636</v>
+        <v>0.606618681027554</v>
       </c>
       <c r="E9" t="n">
-        <v>0.606618681027554</v>
+        <v>0.404741669455715</v>
       </c>
       <c r="F9" t="n">
-        <v>0.404741669455715</v>
+        <v>0.296470179474792</v>
       </c>
       <c r="G9" t="n">
-        <v>0.296470179474792</v>
+        <v>0.282669471326983</v>
       </c>
       <c r="H9" t="n">
-        <v>0.282669471326983</v>
+        <v>0.376571407830385</v>
       </c>
       <c r="I9" t="n">
-        <v>0.376571407830385</v>
+        <v>0.32600471502799</v>
       </c>
       <c r="J9" t="n">
-        <v>0.32600471502799</v>
+        <v>0.451312875643141</v>
       </c>
       <c r="K9" t="n">
-        <v>0.451312875643141</v>
+        <v>0.341314279087687</v>
       </c>
       <c r="L9" t="n">
-        <v>0.341314279087687</v>
+        <v>0.362475436951784</v>
       </c>
       <c r="M9" t="n">
-        <v>0.362475436951784</v>
+        <v>0.535384805366787</v>
       </c>
       <c r="N9" t="n">
-        <v>0.535384805366787</v>
-      </c>
-      <c r="O9" t="n">
         <v>0.265617828927838</v>
       </c>
     </row>
